--- a/research/paperdata.xlsx
+++ b/research/paperdata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\research\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD109A3-9C38-42E3-AA9B-22CE15E24BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author1</t>
+  </si>
+  <si>
+    <t>author2</t>
+  </si>
+  <si>
+    <t>author3</t>
+  </si>
+  <si>
+    <t>author4</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>linkto</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +374,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/research/paperdata.xlsx
+++ b/research/paperdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD109A3-9C38-42E3-AA9B-22CE15E24BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6105CCDD-6CCF-4D37-BBB4-097F784004B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>title</t>
   </si>
@@ -58,6 +58,78 @@
   </si>
   <si>
     <t>journal</t>
+  </si>
+  <si>
+    <t>Selective peak inference: Unbiased estimation of raw and standardized effect size at local maxima</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1053811919309668</t>
+  </si>
+  <si>
+    <t>NeuroImage</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/500512v3</t>
+  </si>
+  <si>
+    <t>https://github.com/BrainStatsSam/SIbootstrap</t>
+  </si>
+  <si>
+    <t>Samuel Davenport</t>
+  </si>
+  <si>
+    <t>Thomas E. Nichols</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0730725X21002332</t>
+  </si>
+  <si>
+    <t>The expected behaviour of random fields in high dimensions: contradictions in the results of Bansal and Peterson (2018)</t>
+  </si>
+  <si>
+    <t>Magnetic Resonance Imaging</t>
+  </si>
+  <si>
+    <t>/research/papers/expectedbehaviourofrandomfields.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/sjdavenport/BansalResponse</t>
+  </si>
+  <si>
+    <t>Statistical Inference in fMRI using Random Field Theory and Resampling Methods</t>
+  </si>
+  <si>
+    <t>/research/papers/thesis.pdf</t>
+  </si>
+  <si>
+    <t>PhD Thesis</t>
+  </si>
+  <si>
+    <t>https://github.com/sjdavenport/RFTtoolbox</t>
+  </si>
+  <si>
+    <t>Functional delta residuals and applications to functional effect sizes</t>
+  </si>
+  <si>
+    <t>https://github.com/ftelschow/SIRF</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2005.10041</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0047259X22000835</t>
+  </si>
+  <si>
+    <t>Journal of Multivariate Analysis</t>
+  </si>
+  <si>
+    <t>arxiv</t>
+  </si>
+  <si>
+    <t>Fabian JE Telschow</t>
+  </si>
+  <si>
+    <t>Armin Schwartzman</t>
   </si>
 </sst>
 </file>
@@ -375,17 +447,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.7265625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.6328125" customWidth="1"/>
@@ -393,7 +467,7 @@
     <col min="11" max="11" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,25 +481,129 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>2021</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>2021</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
